--- a/Just_12_months_timeline.xlsx
+++ b/Just_12_months_timeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfree\Dropbox\Work Group Rec Questions\Initial Capture of Suic Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfree\Dropbox\Work Group Rec Questions\Initial Capture of Suic Items\BY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384B5566-3ACC-4BEE-BDB6-95DE9BF7E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EA51C0-6CFF-4C89-B915-0A261BE6702C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="159">
   <si>
     <t>Item Number</t>
   </si>
@@ -511,6 +511,15 @@
   </si>
   <si>
     <t>Delivery Method</t>
+  </si>
+  <si>
+    <t>Veterans Use</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -580,13 +589,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -893,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,9 +920,10 @@
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,8 +951,11 @@
       <c r="I1" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>5</v>
       </c>
@@ -967,8 +983,11 @@
       <c r="I2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>16</v>
       </c>
@@ -996,8 +1015,11 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>31</v>
       </c>
@@ -1025,8 +1047,11 @@
       <c r="I4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40</v>
       </c>
@@ -1054,8 +1079,11 @@
       <c r="I5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>47</v>
       </c>
@@ -1083,8 +1111,11 @@
       <c r="I6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>55</v>
       </c>
@@ -1112,8 +1143,11 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>75</v>
       </c>
@@ -1141,8 +1175,11 @@
       <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>88</v>
       </c>
@@ -1170,8 +1207,11 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -1199,8 +1239,11 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -1228,8 +1271,11 @@
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>18</v>
       </c>
@@ -1257,8 +1303,11 @@
       <c r="I12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>23</v>
       </c>
@@ -1286,8 +1335,11 @@
       <c r="I13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1315,8 +1367,11 @@
       <c r="I14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -1344,8 +1399,11 @@
       <c r="I15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -1373,8 +1431,11 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1402,8 +1463,11 @@
       <c r="I17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1431,8 +1495,11 @@
       <c r="I18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1460,8 +1527,11 @@
       <c r="I19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1489,8 +1559,11 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1518,8 +1591,11 @@
       <c r="I21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1547,8 +1623,11 @@
       <c r="I22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1576,8 +1655,11 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1605,8 +1687,11 @@
       <c r="I24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>26</v>
       </c>
@@ -1634,8 +1719,11 @@
       <c r="I25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>27</v>
       </c>
@@ -1663,8 +1751,11 @@
       <c r="I26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>28</v>
       </c>
@@ -1692,8 +1783,11 @@
       <c r="I27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>29</v>
       </c>
@@ -1721,8 +1815,11 @@
       <c r="I28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>30</v>
       </c>
@@ -1750,8 +1847,11 @@
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1779,8 +1879,11 @@
       <c r="I30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
@@ -1808,8 +1911,11 @@
       <c r="I31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1837,8 +1943,11 @@
       <c r="I32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -1866,8 +1975,11 @@
       <c r="I33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1895,8 +2007,11 @@
       <c r="I34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
@@ -1924,8 +2039,11 @@
       <c r="I35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
@@ -1953,8 +2071,11 @@
       <c r="I36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
@@ -1982,8 +2103,11 @@
       <c r="I37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
@@ -2011,8 +2135,11 @@
       <c r="I38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -2040,8 +2167,11 @@
       <c r="I39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -2066,8 +2196,11 @@
       <c r="I40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -2095,8 +2228,11 @@
       <c r="I41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -2124,8 +2260,11 @@
       <c r="I42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>3</v>
       </c>
@@ -2153,8 +2292,11 @@
       <c r="I43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>4</v>
       </c>
@@ -2182,8 +2324,11 @@
       <c r="I44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>5</v>
       </c>
@@ -2211,8 +2356,11 @@
       <c r="I45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>6</v>
       </c>
@@ -2240,8 +2388,11 @@
       <c r="I46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>7</v>
       </c>
@@ -2269,8 +2420,11 @@
       <c r="I47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>8</v>
       </c>
@@ -2298,8 +2452,11 @@
       <c r="I48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>9</v>
       </c>
@@ -2327,8 +2484,11 @@
       <c r="I49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>10</v>
       </c>
@@ -2356,8 +2516,11 @@
       <c r="I50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -2385,8 +2548,11 @@
       <c r="I51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>20</v>
       </c>
@@ -2414,8 +2580,11 @@
       <c r="I52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>35</v>
       </c>
@@ -2443,8 +2612,11 @@
       <c r="I53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>36</v>
       </c>
@@ -2472,8 +2644,11 @@
       <c r="I54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>33</v>
       </c>
@@ -2501,8 +2676,11 @@
       <c r="I55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>79</v>
       </c>
@@ -2530,8 +2708,11 @@
       <c r="I56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>85</v>
       </c>
@@ -2559,8 +2740,11 @@
       <c r="I57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>92</v>
       </c>
@@ -2588,8 +2772,11 @@
       <c r="I58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>10</v>
       </c>
@@ -2617,8 +2804,11 @@
       <c r="I59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
@@ -2646,8 +2836,11 @@
       <c r="I60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>11</v>
       </c>
@@ -2675,8 +2868,11 @@
       <c r="I61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>24</v>
       </c>
@@ -2704,8 +2900,11 @@
       <c r="I62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -2733,8 +2932,11 @@
       <c r="I63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
@@ -2759,8 +2961,11 @@
       <c r="I64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>26</v>
       </c>
@@ -2785,8 +2990,11 @@
       <c r="I65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2811,8 +3019,11 @@
       <c r="I66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>3</v>
       </c>
@@ -2840,8 +3051,11 @@
       <c r="I67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>15</v>
       </c>
@@ -2869,8 +3083,11 @@
       <c r="I68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>7</v>
       </c>
@@ -2898,8 +3115,11 @@
       <c r="I69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>11</v>
       </c>
@@ -2926,6 +3146,9 @@
       </c>
       <c r="I70">
         <v>2</v>
+      </c>
+      <c r="J70" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
